--- a/data/pca/factorExposure/factorExposure_2013-03-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-18.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001322193097291622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002053009511463194</v>
+      </c>
+      <c r="C2">
+        <v>-0.03421498367074972</v>
+      </c>
+      <c r="D2">
+        <v>-0.004093300145824466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001450435234233027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00595916741649236</v>
+      </c>
+      <c r="C4">
+        <v>-0.08469877734822892</v>
+      </c>
+      <c r="D4">
+        <v>0.07860601268240577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003273953588635926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01356322136136848</v>
+      </c>
+      <c r="C6">
+        <v>-0.113721584192233</v>
+      </c>
+      <c r="D6">
+        <v>0.0326148868327119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001926676384312901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004773403821892212</v>
+      </c>
+      <c r="C7">
+        <v>-0.05630322883710681</v>
+      </c>
+      <c r="D7">
+        <v>0.03285162050589124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002401585081875091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005683437430545737</v>
+      </c>
+      <c r="C8">
+        <v>-0.03880147974695398</v>
+      </c>
+      <c r="D8">
+        <v>0.04131968998844072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003640337787009884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004073062261037028</v>
+      </c>
+      <c r="C9">
+        <v>-0.07076694317566426</v>
+      </c>
+      <c r="D9">
+        <v>0.07024884760729701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004421576022368333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005240025143884719</v>
+      </c>
+      <c r="C10">
+        <v>-0.05951745659037754</v>
+      </c>
+      <c r="D10">
+        <v>-0.2010306072382134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.00249400094687932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005335577795842055</v>
+      </c>
+      <c r="C11">
+        <v>-0.08094543866664058</v>
+      </c>
+      <c r="D11">
+        <v>0.05878371402618845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003181893905992603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003931956209458444</v>
+      </c>
+      <c r="C12">
+        <v>-0.06463134426791844</v>
+      </c>
+      <c r="D12">
+        <v>0.04532958621531468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.00363806218666288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008545553861240843</v>
+      </c>
+      <c r="C13">
+        <v>-0.06715349812208189</v>
+      </c>
+      <c r="D13">
+        <v>0.06868536973501786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001063484711111514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001352010482219734</v>
+      </c>
+      <c r="C14">
+        <v>-0.04615146615602847</v>
+      </c>
+      <c r="D14">
+        <v>0.007794717367121503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001104761208316786</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005786167620659408</v>
+      </c>
+      <c r="C15">
+        <v>-0.04189173646946882</v>
+      </c>
+      <c r="D15">
+        <v>0.03152904409295543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.00121100814539841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004945509124105906</v>
+      </c>
+      <c r="C16">
+        <v>-0.06672742266597594</v>
+      </c>
+      <c r="D16">
+        <v>0.04507296476645422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004418374158773323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008779819561542597</v>
+      </c>
+      <c r="C20">
+        <v>-0.06788328318942874</v>
+      </c>
+      <c r="D20">
+        <v>0.0464272720087442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005396084545980426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009808470235722865</v>
+      </c>
+      <c r="C21">
+        <v>-0.02287923563503164</v>
+      </c>
+      <c r="D21">
+        <v>0.03577269463343164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01810234663177515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006981431208803889</v>
+      </c>
+      <c r="C22">
+        <v>-0.09406904770870081</v>
+      </c>
+      <c r="D22">
+        <v>0.09919342460032538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01842074227949756</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006796349393053105</v>
+      </c>
+      <c r="C23">
+        <v>-0.09494614270609009</v>
+      </c>
+      <c r="D23">
+        <v>0.09956557975790957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001829147779912639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005096085331108543</v>
+      </c>
+      <c r="C24">
+        <v>-0.07613903370574439</v>
+      </c>
+      <c r="D24">
+        <v>0.05775706019315095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003620719716961702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002771744910030499</v>
+      </c>
+      <c r="C25">
+        <v>-0.07877687425168953</v>
+      </c>
+      <c r="D25">
+        <v>0.06429919326829078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.00589005256290546</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.0034534133226605</v>
+      </c>
+      <c r="C26">
+        <v>-0.04174565355582289</v>
+      </c>
+      <c r="D26">
+        <v>0.02318893089792377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004324157888447134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001223171708857045</v>
+      </c>
+      <c r="C28">
+        <v>-0.1068320607806258</v>
+      </c>
+      <c r="D28">
+        <v>-0.3192403559430249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001016754223543229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003007826247262718</v>
+      </c>
+      <c r="C29">
+        <v>-0.04913367042911012</v>
+      </c>
+      <c r="D29">
+        <v>0.003142277384066318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.00299516149055882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008955322195078101</v>
+      </c>
+      <c r="C30">
+        <v>-0.1453560872150374</v>
+      </c>
+      <c r="D30">
+        <v>0.1002459331775069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.000380282229291204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006074268545161717</v>
+      </c>
+      <c r="C31">
+        <v>-0.0454362236909025</v>
+      </c>
+      <c r="D31">
+        <v>0.03208305596620536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004758581429484764</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003806677618116051</v>
+      </c>
+      <c r="C32">
+        <v>-0.04055806813602308</v>
+      </c>
+      <c r="D32">
+        <v>0.02467516590073913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002735654822849426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007945838584847679</v>
+      </c>
+      <c r="C33">
+        <v>-0.0870295115728786</v>
+      </c>
+      <c r="D33">
+        <v>0.06968584232088459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004235748360721579</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003841804356535431</v>
+      </c>
+      <c r="C34">
+        <v>-0.05919590226153031</v>
+      </c>
+      <c r="D34">
+        <v>0.04889933021510067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002561847167634742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004701638514606871</v>
+      </c>
+      <c r="C35">
+        <v>-0.03945900366898132</v>
+      </c>
+      <c r="D35">
+        <v>0.01300051172221187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003965876283002276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001420690941898779</v>
+      </c>
+      <c r="C36">
+        <v>-0.02488204317986525</v>
+      </c>
+      <c r="D36">
+        <v>0.01938507575516644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002253712731707818</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009425881575413344</v>
+      </c>
+      <c r="C38">
+        <v>-0.03383685085237014</v>
+      </c>
+      <c r="D38">
+        <v>0.02120445349769458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01225927168243695</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001031038108757976</v>
+      </c>
+      <c r="C39">
+        <v>-0.1175819688104471</v>
+      </c>
+      <c r="D39">
+        <v>0.07085729195242613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009396418823464826</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002094711223551297</v>
+      </c>
+      <c r="C40">
+        <v>-0.08859475528326698</v>
+      </c>
+      <c r="D40">
+        <v>0.01459386111138837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0002238734658034101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007161935548502624</v>
+      </c>
+      <c r="C41">
+        <v>-0.03791462896426401</v>
+      </c>
+      <c r="D41">
+        <v>0.03524936311768136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003155873060720925</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003509890619668438</v>
+      </c>
+      <c r="C43">
+        <v>-0.05177345272796101</v>
+      </c>
+      <c r="D43">
+        <v>0.02368623536182004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002649061007633258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003127818118323819</v>
+      </c>
+      <c r="C44">
+        <v>-0.1130615396070373</v>
+      </c>
+      <c r="D44">
+        <v>0.070711295222881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001507681866948952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002300316396989268</v>
+      </c>
+      <c r="C46">
+        <v>-0.03572010727825812</v>
+      </c>
+      <c r="D46">
+        <v>0.02644224460252296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-7.348024866107075e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002667128035671136</v>
+      </c>
+      <c r="C47">
+        <v>-0.03801068658100321</v>
+      </c>
+      <c r="D47">
+        <v>0.02540721306214375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003416467519124964</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006367718686280076</v>
+      </c>
+      <c r="C48">
+        <v>-0.02904849993661854</v>
+      </c>
+      <c r="D48">
+        <v>0.03054480165430752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01323669102731347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01462034858670429</v>
+      </c>
+      <c r="C49">
+        <v>-0.1840440694003375</v>
+      </c>
+      <c r="D49">
+        <v>0.0130731105124104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001261887965050299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003506124582011732</v>
+      </c>
+      <c r="C50">
+        <v>-0.04414477604877002</v>
+      </c>
+      <c r="D50">
+        <v>0.03532262137240642</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.000271936200020187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004268407283930672</v>
+      </c>
+      <c r="C51">
+        <v>-0.02534954926609782</v>
+      </c>
+      <c r="D51">
+        <v>0.02020369391072705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001108396615477823</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02018218300201333</v>
+      </c>
+      <c r="C53">
+        <v>-0.1693027103399943</v>
+      </c>
+      <c r="D53">
+        <v>0.03700477096734649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001098389747409311</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008661185188970822</v>
+      </c>
+      <c r="C54">
+        <v>-0.05611872986639242</v>
+      </c>
+      <c r="D54">
+        <v>0.04141890584378638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003696256868444439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009227321038909633</v>
+      </c>
+      <c r="C55">
+        <v>-0.1102725886432409</v>
+      </c>
+      <c r="D55">
+        <v>0.04332755343674684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003908464559272132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01966936839487543</v>
+      </c>
+      <c r="C56">
+        <v>-0.1760634269855945</v>
+      </c>
+      <c r="D56">
+        <v>0.03458993195693554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00696530198907392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01947502113083419</v>
+      </c>
+      <c r="C58">
+        <v>-0.1114409764219181</v>
+      </c>
+      <c r="D58">
+        <v>0.05425108966342097</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006555954448462203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008941994778660889</v>
+      </c>
+      <c r="C59">
+        <v>-0.1596821667818976</v>
+      </c>
+      <c r="D59">
+        <v>-0.3043415093780217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00369613229791773</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02303253355630096</v>
+      </c>
+      <c r="C60">
+        <v>-0.2238804559064846</v>
+      </c>
+      <c r="D60">
+        <v>0.01939168088838071</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01427720345573069</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002098988488587436</v>
+      </c>
+      <c r="C61">
+        <v>-0.09589920062084219</v>
+      </c>
+      <c r="D61">
+        <v>0.05604907199872052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1699908488175359</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1441095991736021</v>
+      </c>
+      <c r="C62">
+        <v>-0.0890365593015582</v>
+      </c>
+      <c r="D62">
+        <v>0.04655356240211665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0008641280219180049</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006150428614091626</v>
+      </c>
+      <c r="C63">
+        <v>-0.05698536350447461</v>
+      </c>
+      <c r="D63">
+        <v>0.02387314063301336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.004938146657510064</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01475911645569462</v>
+      </c>
+      <c r="C64">
+        <v>-0.1045234604632741</v>
+      </c>
+      <c r="D64">
+        <v>0.05844907144675628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002739950092902788</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01723292563581895</v>
+      </c>
+      <c r="C65">
+        <v>-0.121276065623986</v>
+      </c>
+      <c r="D65">
+        <v>0.01645428495290165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007329904455069937</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01235368487595246</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596123348262795</v>
+      </c>
+      <c r="D66">
+        <v>0.1121718477477513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003758766836531975</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01548751514717672</v>
+      </c>
+      <c r="C67">
+        <v>-0.06464201126537163</v>
+      </c>
+      <c r="D67">
+        <v>0.02969504959974701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006222017850715447</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.000418506601428478</v>
+      </c>
+      <c r="C68">
+        <v>-0.0876586449164552</v>
+      </c>
+      <c r="D68">
+        <v>-0.2521671837647291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002935420704907025</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005975260932319922</v>
+      </c>
+      <c r="C69">
+        <v>-0.05084161067572055</v>
+      </c>
+      <c r="D69">
+        <v>0.03809612589576274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000167075407160125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00184633127137169</v>
+      </c>
+      <c r="C70">
+        <v>-0.002913264420690988</v>
+      </c>
+      <c r="D70">
+        <v>0.00146974364074738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.000398460214908223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005606747187386438</v>
+      </c>
+      <c r="C71">
+        <v>-0.09766349953749964</v>
+      </c>
+      <c r="D71">
+        <v>-0.2996376734128766</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004531281807458169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0154172379308544</v>
+      </c>
+      <c r="C72">
+        <v>-0.1497815917854257</v>
+      </c>
+      <c r="D72">
+        <v>0.02459311612539104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.012247731899417</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02907125802307036</v>
+      </c>
+      <c r="C73">
+        <v>-0.2765379122879781</v>
+      </c>
+      <c r="D73">
+        <v>0.04749239487007303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.0043140872749789</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00133063092915085</v>
+      </c>
+      <c r="C74">
+        <v>-0.1050471537590152</v>
+      </c>
+      <c r="D74">
+        <v>0.03900880396831421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002145013657466698</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01065264857301373</v>
+      </c>
+      <c r="C75">
+        <v>-0.1306273523299994</v>
+      </c>
+      <c r="D75">
+        <v>0.02320053561137331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009500687876009299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02124304978294815</v>
+      </c>
+      <c r="C76">
+        <v>-0.1509500423545333</v>
+      </c>
+      <c r="D76">
+        <v>0.06402237430399352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001442508602880507</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02395792828402475</v>
+      </c>
+      <c r="C77">
+        <v>-0.1310215012529992</v>
+      </c>
+      <c r="D77">
+        <v>0.05365547615117177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008578141088665133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01421831931914725</v>
+      </c>
+      <c r="C78">
+        <v>-0.0951387421961548</v>
+      </c>
+      <c r="D78">
+        <v>0.06544478228441022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02469255562234608</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03696555788946676</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568831460136901</v>
+      </c>
+      <c r="D79">
+        <v>0.03244088666950383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004696078416007891</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01050253849621184</v>
+      </c>
+      <c r="C80">
+        <v>-0.04292365641041881</v>
+      </c>
+      <c r="D80">
+        <v>0.03031981921873364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001007256150426483</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01464985417240107</v>
+      </c>
+      <c r="C81">
+        <v>-0.1275837122545089</v>
+      </c>
+      <c r="D81">
+        <v>0.04424518228357895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005921058412973071</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01954897141729451</v>
+      </c>
+      <c r="C82">
+        <v>-0.1455768736702659</v>
+      </c>
+      <c r="D82">
+        <v>0.04198473263354837</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008733647737032739</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009998486526501227</v>
+      </c>
+      <c r="C83">
+        <v>-0.0575638174450149</v>
+      </c>
+      <c r="D83">
+        <v>0.05418080187091077</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01285921923817647</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01163402780849883</v>
+      </c>
+      <c r="C84">
+        <v>-0.03839749599952114</v>
+      </c>
+      <c r="D84">
+        <v>-0.00778277749391187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01594029145332022</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02780022460182451</v>
+      </c>
+      <c r="C85">
+        <v>-0.1305436470492079</v>
+      </c>
+      <c r="D85">
+        <v>0.0450479197341054</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0009641390192875078</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005353321825942723</v>
+      </c>
+      <c r="C86">
+        <v>-0.04880838774189628</v>
+      </c>
+      <c r="D86">
+        <v>0.02373094586698177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004932178758914368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01027297292782428</v>
+      </c>
+      <c r="C87">
+        <v>-0.1331946907784138</v>
+      </c>
+      <c r="D87">
+        <v>0.06269142518073502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01289439220818678</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003091671264133087</v>
+      </c>
+      <c r="C88">
+        <v>-0.06741569940246075</v>
+      </c>
+      <c r="D88">
+        <v>0.008974291029573376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01430241961198093</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001983837714733176</v>
+      </c>
+      <c r="C89">
+        <v>-0.1460458620395827</v>
+      </c>
+      <c r="D89">
+        <v>-0.3509784334065771</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.00229010017965507</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006576719982610193</v>
+      </c>
+      <c r="C90">
+        <v>-0.121433665664955</v>
+      </c>
+      <c r="D90">
+        <v>-0.3240577263862546</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001284573116195436</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01019743066640219</v>
+      </c>
+      <c r="C91">
+        <v>-0.1024893882981621</v>
+      </c>
+      <c r="D91">
+        <v>0.02445918057608694</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008560147057498942</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-9.513420553166776e-05</v>
+      </c>
+      <c r="C92">
+        <v>-0.1344039819502154</v>
+      </c>
+      <c r="D92">
+        <v>-0.3360671287459184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0002422208067667664</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004549808128102355</v>
+      </c>
+      <c r="C93">
+        <v>-0.1049697391366827</v>
+      </c>
+      <c r="D93">
+        <v>-0.3145386886402839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004585831686994462</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02225264843389265</v>
+      </c>
+      <c r="C94">
+        <v>-0.1538507448920916</v>
+      </c>
+      <c r="D94">
+        <v>0.04748040371830845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.00473076245503329</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01607346354265375</v>
+      </c>
+      <c r="C95">
+        <v>-0.1276866991183704</v>
+      </c>
+      <c r="D95">
+        <v>0.06245341267189648</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001202446402483862</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03401917136245314</v>
+      </c>
+      <c r="C97">
+        <v>-0.1921808657425898</v>
+      </c>
+      <c r="D97">
+        <v>0.008921520803085399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003827240178248021</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03588317459598808</v>
+      </c>
+      <c r="C98">
+        <v>-0.2471968436421837</v>
+      </c>
+      <c r="D98">
+        <v>0.05439065622815051</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.983508824700028</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827080351326276</v>
+      </c>
+      <c r="C99">
+        <v>0.1118057929884624</v>
+      </c>
+      <c r="D99">
+        <v>-0.02815572085106916</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.000967815288530208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003053159725360024</v>
+      </c>
+      <c r="C101">
+        <v>-0.04915507749641908</v>
+      </c>
+      <c r="D101">
+        <v>0.003614212844521957</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
